--- a/extras/rdms/results_table_relationships.xlsx
+++ b/extras/rdms/results_table_relationships.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\OHDSI\Strategus\extras\rdms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5EBF97-2FCF-41B9-9995-36EA891A6F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56680188-1992-4BF2-A456-1C3F3CA26BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{7833247A-4501-4481-804F-94A4F5F8F032}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7833247A-4501-4481-804F-94A4F5F8F032}"/>
   </bookViews>
   <sheets>
     <sheet name="ohdsi_shiny_modules_table_relat" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="291">
   <si>
     <t>fileName</t>
   </si>
@@ -882,6 +882,18 @@
   </si>
   <si>
     <t>validation_database_id</t>
+  </si>
+  <si>
+    <t>table_name</t>
+  </si>
+  <si>
+    <t>column_name</t>
+  </si>
+  <si>
+    <t>fk_table_name</t>
+  </si>
+  <si>
+    <t>fk_column_name</t>
   </si>
 </sst>
 </file>
@@ -1748,8 +1760,8 @@
   <dimension ref="A1:I186"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:I56"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:I186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6195,10 +6207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467A9230-E587-461B-8EC1-FD9763615E7C}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6211,16 +6223,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="C1" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="D1" t="s">
-        <v>196</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6795,6 +6807,1378 @@
       </c>
       <c r="D42" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>238</v>
+      </c>
+      <c r="B43" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" t="s">
+        <v>239</v>
+      </c>
+      <c r="D43" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>235</v>
+      </c>
+      <c r="B46" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" t="s">
+        <v>209</v>
+      </c>
+      <c r="C47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" t="s">
+        <v>211</v>
+      </c>
+      <c r="D48" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>242</v>
+      </c>
+      <c r="B50" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>243</v>
+      </c>
+      <c r="B52" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>244</v>
+      </c>
+      <c r="B53" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" t="s">
+        <v>213</v>
+      </c>
+      <c r="D53" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>245</v>
+      </c>
+      <c r="B54" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>246</v>
+      </c>
+      <c r="B55" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D55" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>247</v>
+      </c>
+      <c r="B56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" t="s">
+        <v>248</v>
+      </c>
+      <c r="D56" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>247</v>
+      </c>
+      <c r="B57" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" t="s">
+        <v>248</v>
+      </c>
+      <c r="D57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>247</v>
+      </c>
+      <c r="B58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" t="s">
+        <v>248</v>
+      </c>
+      <c r="D58" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>247</v>
+      </c>
+      <c r="B59" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>250</v>
+      </c>
+      <c r="B60" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61" t="s">
+        <v>207</v>
+      </c>
+      <c r="C61" t="s">
+        <v>253</v>
+      </c>
+      <c r="D61" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" t="s">
+        <v>251</v>
+      </c>
+      <c r="C62" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>250</v>
+      </c>
+      <c r="B63" t="s">
+        <v>252</v>
+      </c>
+      <c r="C63" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>250</v>
+      </c>
+      <c r="B64" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" t="s">
+        <v>213</v>
+      </c>
+      <c r="D64" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>246</v>
+      </c>
+      <c r="B65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" t="s">
+        <v>248</v>
+      </c>
+      <c r="D65" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>246</v>
+      </c>
+      <c r="B66" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" t="s">
+        <v>248</v>
+      </c>
+      <c r="D66" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" t="s">
+        <v>248</v>
+      </c>
+      <c r="D67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>248</v>
+      </c>
+      <c r="B68" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" t="s">
+        <v>255</v>
+      </c>
+      <c r="D68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>253</v>
+      </c>
+      <c r="B69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" t="s">
+        <v>256</v>
+      </c>
+      <c r="D69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>253</v>
+      </c>
+      <c r="B70" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>253</v>
+      </c>
+      <c r="B71" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" t="s">
+        <v>257</v>
+      </c>
+      <c r="D71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>253</v>
+      </c>
+      <c r="B72" t="s">
+        <v>251</v>
+      </c>
+      <c r="C72" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>253</v>
+      </c>
+      <c r="B73" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" t="s">
+        <v>257</v>
+      </c>
+      <c r="D73" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>253</v>
+      </c>
+      <c r="B74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" t="s">
+        <v>257</v>
+      </c>
+      <c r="D74" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>253</v>
+      </c>
+      <c r="B75" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" t="s">
+        <v>257</v>
+      </c>
+      <c r="D75" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>253</v>
+      </c>
+      <c r="B76" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>253</v>
+      </c>
+      <c r="B77" t="s">
+        <v>220</v>
+      </c>
+      <c r="C77" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>253</v>
+      </c>
+      <c r="B78" t="s">
+        <v>252</v>
+      </c>
+      <c r="C78" t="s">
+        <v>213</v>
+      </c>
+      <c r="D78" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>256</v>
+      </c>
+      <c r="B79" t="s">
+        <v>251</v>
+      </c>
+      <c r="C79" t="s">
+        <v>258</v>
+      </c>
+      <c r="D79" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>256</v>
+      </c>
+      <c r="B80" t="s">
+        <v>252</v>
+      </c>
+      <c r="C80" t="s">
+        <v>258</v>
+      </c>
+      <c r="D80" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>256</v>
+      </c>
+      <c r="B81" t="s">
+        <v>220</v>
+      </c>
+      <c r="C81" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>259</v>
+      </c>
+      <c r="B82" t="s">
+        <v>254</v>
+      </c>
+      <c r="C82" t="s">
+        <v>261</v>
+      </c>
+      <c r="D82" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>259</v>
+      </c>
+      <c r="B83" t="s">
+        <v>202</v>
+      </c>
+      <c r="C83" t="s">
+        <v>211</v>
+      </c>
+      <c r="D83" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>259</v>
+      </c>
+      <c r="B84" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" t="s">
+        <v>262</v>
+      </c>
+      <c r="D84" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>259</v>
+      </c>
+      <c r="B85" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" t="s">
+        <v>263</v>
+      </c>
+      <c r="D85" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>259</v>
+      </c>
+      <c r="B86" t="s">
+        <v>254</v>
+      </c>
+      <c r="C86" t="s">
+        <v>263</v>
+      </c>
+      <c r="D86" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>259</v>
+      </c>
+      <c r="B87" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" t="s">
+        <v>263</v>
+      </c>
+      <c r="D87" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>264</v>
+      </c>
+      <c r="B88" t="s">
+        <v>254</v>
+      </c>
+      <c r="C88" t="s">
+        <v>263</v>
+      </c>
+      <c r="D88" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" t="s">
+        <v>263</v>
+      </c>
+      <c r="D89" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>264</v>
+      </c>
+      <c r="B90" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" t="s">
+        <v>263</v>
+      </c>
+      <c r="D90" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" t="s">
+        <v>263</v>
+      </c>
+      <c r="D91" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>264</v>
+      </c>
+      <c r="B92" t="s">
+        <v>260</v>
+      </c>
+      <c r="C92" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>264</v>
+      </c>
+      <c r="B93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C93" t="s">
+        <v>265</v>
+      </c>
+      <c r="D93" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>264</v>
+      </c>
+      <c r="B94" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" t="s">
+        <v>265</v>
+      </c>
+      <c r="D94" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>264</v>
+      </c>
+      <c r="B95" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95" t="s">
+        <v>265</v>
+      </c>
+      <c r="D95" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>264</v>
+      </c>
+      <c r="B96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C96" t="s">
+        <v>265</v>
+      </c>
+      <c r="D96" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>267</v>
+      </c>
+      <c r="B97" t="s">
+        <v>254</v>
+      </c>
+      <c r="C97" t="s">
+        <v>266</v>
+      </c>
+      <c r="D97" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>267</v>
+      </c>
+      <c r="B98" t="s">
+        <v>260</v>
+      </c>
+      <c r="C98" t="s">
+        <v>263</v>
+      </c>
+      <c r="D98" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>267</v>
+      </c>
+      <c r="B99" t="s">
+        <v>254</v>
+      </c>
+      <c r="C99" t="s">
+        <v>263</v>
+      </c>
+      <c r="D99" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>267</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" t="s">
+        <v>263</v>
+      </c>
+      <c r="D100" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>267</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" t="s">
+        <v>263</v>
+      </c>
+      <c r="D101" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>267</v>
+      </c>
+      <c r="B102" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" t="s">
+        <v>211</v>
+      </c>
+      <c r="D102" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>267</v>
+      </c>
+      <c r="B103" t="s">
+        <v>254</v>
+      </c>
+      <c r="C103" t="s">
+        <v>269</v>
+      </c>
+      <c r="D103" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>267</v>
+      </c>
+      <c r="B104" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" t="s">
+        <v>269</v>
+      </c>
+      <c r="D104" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>267</v>
+      </c>
+      <c r="B105" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" t="s">
+        <v>269</v>
+      </c>
+      <c r="D105" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>267</v>
+      </c>
+      <c r="B106" t="s">
+        <v>204</v>
+      </c>
+      <c r="C106" t="s">
+        <v>269</v>
+      </c>
+      <c r="D106" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>267</v>
+      </c>
+      <c r="B107" t="s">
+        <v>207</v>
+      </c>
+      <c r="C107" t="s">
+        <v>263</v>
+      </c>
+      <c r="D107" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>267</v>
+      </c>
+      <c r="B108" t="s">
+        <v>254</v>
+      </c>
+      <c r="C108" t="s">
+        <v>270</v>
+      </c>
+      <c r="D108" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>267</v>
+      </c>
+      <c r="B109" t="s">
+        <v>207</v>
+      </c>
+      <c r="C109" t="s">
+        <v>262</v>
+      </c>
+      <c r="D109" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>267</v>
+      </c>
+      <c r="B110" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110" t="s">
+        <v>213</v>
+      </c>
+      <c r="D110" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>261</v>
+      </c>
+      <c r="B111" t="s">
+        <v>268</v>
+      </c>
+      <c r="C111" t="s">
+        <v>213</v>
+      </c>
+      <c r="D111" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>261</v>
+      </c>
+      <c r="B112" t="s">
+        <v>254</v>
+      </c>
+      <c r="C112" t="s">
+        <v>263</v>
+      </c>
+      <c r="D112" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>261</v>
+      </c>
+      <c r="B113" t="s">
+        <v>254</v>
+      </c>
+      <c r="C113" t="s">
+        <v>266</v>
+      </c>
+      <c r="D113" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>261</v>
+      </c>
+      <c r="B114" t="s">
+        <v>260</v>
+      </c>
+      <c r="C114" t="s">
+        <v>266</v>
+      </c>
+      <c r="D114" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>261</v>
+      </c>
+      <c r="B115" t="s">
+        <v>260</v>
+      </c>
+      <c r="C115" t="s">
+        <v>213</v>
+      </c>
+      <c r="D115" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>267</v>
+      </c>
+      <c r="B116" t="s">
+        <v>254</v>
+      </c>
+      <c r="C116" t="s">
+        <v>261</v>
+      </c>
+      <c r="D116" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>264</v>
+      </c>
+      <c r="B117" t="s">
+        <v>254</v>
+      </c>
+      <c r="C117" t="s">
+        <v>270</v>
+      </c>
+      <c r="D117" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>271</v>
+      </c>
+      <c r="B118" t="s">
+        <v>254</v>
+      </c>
+      <c r="C118" t="s">
+        <v>270</v>
+      </c>
+      <c r="D118" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>259</v>
+      </c>
+      <c r="B119" t="s">
+        <v>254</v>
+      </c>
+      <c r="C119" t="s">
+        <v>270</v>
+      </c>
+      <c r="D119" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>272</v>
+      </c>
+      <c r="B120" t="s">
+        <v>254</v>
+      </c>
+      <c r="C120" t="s">
+        <v>270</v>
+      </c>
+      <c r="D120" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>273</v>
+      </c>
+      <c r="B121" t="s">
+        <v>254</v>
+      </c>
+      <c r="C121" t="s">
+        <v>270</v>
+      </c>
+      <c r="D121" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>274</v>
+      </c>
+      <c r="B122" t="s">
+        <v>254</v>
+      </c>
+      <c r="C122" t="s">
+        <v>270</v>
+      </c>
+      <c r="D122" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>275</v>
+      </c>
+      <c r="B123" t="s">
+        <v>254</v>
+      </c>
+      <c r="C123" t="s">
+        <v>270</v>
+      </c>
+      <c r="D123" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>276</v>
+      </c>
+      <c r="B124" t="s">
+        <v>254</v>
+      </c>
+      <c r="C124" t="s">
+        <v>270</v>
+      </c>
+      <c r="D124" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>277</v>
+      </c>
+      <c r="B125" t="s">
+        <v>254</v>
+      </c>
+      <c r="C125" t="s">
+        <v>270</v>
+      </c>
+      <c r="D125" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>259</v>
+      </c>
+      <c r="B126" t="s">
+        <v>207</v>
+      </c>
+      <c r="C126" t="s">
+        <v>263</v>
+      </c>
+      <c r="D126" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>278</v>
+      </c>
+      <c r="B127" t="s">
+        <v>251</v>
+      </c>
+      <c r="C127" t="s">
+        <v>213</v>
+      </c>
+      <c r="D127" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>278</v>
+      </c>
+      <c r="B128" t="s">
+        <v>220</v>
+      </c>
+      <c r="C128" t="s">
+        <v>213</v>
+      </c>
+      <c r="D128" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>279</v>
+      </c>
+      <c r="B129" t="s">
+        <v>284</v>
+      </c>
+      <c r="C129" t="s">
+        <v>278</v>
+      </c>
+      <c r="D129" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>279</v>
+      </c>
+      <c r="B130" t="s">
+        <v>285</v>
+      </c>
+      <c r="C130" t="s">
+        <v>283</v>
+      </c>
+      <c r="D130" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>279</v>
+      </c>
+      <c r="B131" t="s">
+        <v>202</v>
+      </c>
+      <c r="C131" t="s">
+        <v>211</v>
+      </c>
+      <c r="D131" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>279</v>
+      </c>
+      <c r="B132" t="s">
+        <v>251</v>
+      </c>
+      <c r="C132" t="s">
+        <v>281</v>
+      </c>
+      <c r="D132" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>279</v>
+      </c>
+      <c r="B133" t="s">
+        <v>220</v>
+      </c>
+      <c r="C133" t="s">
+        <v>281</v>
+      </c>
+      <c r="D133" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>280</v>
+      </c>
+      <c r="B134" t="s">
+        <v>251</v>
+      </c>
+      <c r="C134" t="s">
+        <v>213</v>
+      </c>
+      <c r="D134" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>280</v>
+      </c>
+      <c r="B135" t="s">
+        <v>220</v>
+      </c>
+      <c r="C135" t="s">
+        <v>213</v>
+      </c>
+      <c r="D135" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>280</v>
+      </c>
+      <c r="B136" t="s">
+        <v>282</v>
+      </c>
+      <c r="C136" t="s">
+        <v>211</v>
+      </c>
+      <c r="D136" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>280</v>
+      </c>
+      <c r="B137" t="s">
+        <v>286</v>
+      </c>
+      <c r="C137" t="s">
+        <v>211</v>
+      </c>
+      <c r="D137" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>280</v>
+      </c>
+      <c r="B138" t="s">
+        <v>202</v>
+      </c>
+      <c r="C138" t="s">
+        <v>211</v>
+      </c>
+      <c r="D138" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>281</v>
+      </c>
+      <c r="B139" t="s">
+        <v>203</v>
+      </c>
+      <c r="C139" t="s">
+        <v>213</v>
+      </c>
+      <c r="D139" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>212</v>
+      </c>
+      <c r="B140" t="s">
+        <v>251</v>
+      </c>
+      <c r="C140" t="s">
+        <v>213</v>
+      </c>
+      <c r="D140" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
